--- a/biology/Zoologie/Elzunia_humboldt/Elzunia_humboldt.xlsx
+++ b/biology/Zoologie/Elzunia_humboldt/Elzunia_humboldt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elzunia humboldt est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Elzunia.
 </t>
@@ -511,54 +523,57 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Elzunia humboldt a été décrit par Pierre-André Latreille en 1809 sous le nom initial de Heliconius humboldt[1].
-Sous-espèces
-Elzunia humboldt humboldt; présent en Colombie
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia humboldt a été décrit par Pierre-André Latreille en 1809 sous le nom initial de Heliconius humboldt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elzunia_humboldt</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elzunia_humboldt</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elzunia humboldt humboldt; présent en Colombie
 Elzunia humboldt albomaculata (Haensch, 1903); présent en Équateur
-Elzunia humboldt atahualpa Fox, 1956; présent au Pérou[2].
-Elzunia humboldt bonplandii (Guérin-Méneville, [1844]); présent en Colombie
+Elzunia humboldt atahualpa Fox, 1956; présent au Pérou.
+Elzunia humboldt bonplandii (Guérin-Méneville, ); présent en Colombie
 Elzunia humboldt cassandrina Srnka, 1884; présent en Équateur
 Elzunia humboldt joiceyi (Kaye, 1918); présent en Colombie
 Elzunia humboldt judsoni Fox, 1956
 Elzunia humboldt regalis (Stichel, 1903); présent en Colombie
 Elzunia humboldt  ssp; présent en Colombie
-Elzunia humboldt ssp; présent en Équateur[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Elzunia_humboldt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elzunia_humboldt</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elzunia humboldt est un papillon d'une envergure de 84 mm à 95 mm aux ailes antérieures bien plus longues que les ailes postérieures et à bord interne concave[3],[4]. 
-Les ailes sont de couleur grise avec une ligne submarginale de taches blanches. 
-Sur le revers est avec la même ligne submarginale de taches blanches la base des ailes antérieures est bleu gris clair et aux ailes postérieures à la large base bleu gris clair s'ajoute une flaque orange cuivré entre elle et la ligne submarginale de taches blanches.
-Le mâle et la femelle sont identiques[5].
-</t>
+Elzunia humboldt ssp; présent en Équateur.</t>
         </is>
       </c>
     </row>
@@ -583,13 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elzunia humboldt est abondant en janvier-février et en septembre-octobre[4].
-Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia humboldt est un papillon d'une envergure de 84 mm à 95 mm aux ailes antérieures bien plus longues que les ailes postérieures et à bord interne concave,. 
+Les ailes sont de couleur grise avec une ligne submarginale de taches blanches. 
+Sur le revers est avec la même ligne submarginale de taches blanches la base des ailes antérieures est bleu gris clair et aux ailes postérieures à la large base bleu gris clair s'ajoute une flaque orange cuivré entre elle et la ligne submarginale de taches blanches.
+Le mâle et la femelle sont identiques.
+</t>
         </is>
       </c>
     </row>
@@ -614,15 +634,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia humboldt est abondant en janvier-février et en septembre-octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elzunia_humboldt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elzunia_humboldt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elzunia humboldt est présent en Colombie, en Équateur et au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia humboldt est présent en Colombie, en Équateur et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elzunia_humboldt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elzunia_humboldt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Elzunia humboldt, sur Wikimedia CommonsElzunia humboldt, sur Wikispecies
 </t>
